--- a/lab2.xlsx
+++ b/lab2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="8505"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="67">
   <si>
     <t>Н</t>
   </si>
@@ -302,6 +302,9 @@
       </rPr>
       <t>)) (VI)</t>
     </r>
+  </si>
+  <si>
+    <t>С</t>
   </si>
 </sst>
 </file>
@@ -359,7 +362,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -443,23 +446,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -506,6 +511,39 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -810,11 +848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="10305" ySplit="3105" topLeftCell="H16" activePane="bottomRight"/>
-      <selection pane="topRight" activeCell="N7" sqref="N7"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="W31" sqref="W31"/>
+    <sheetView topLeftCell="D9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,47 +876,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
       <c r="X1" s="1" t="s">
         <v>57</v>
       </c>
@@ -896,57 +931,57 @@
       </c>
     </row>
     <row r="2" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6" t="s">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6" t="s">
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="4">
         <v>1</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="4">
         <v>2</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="4">
         <v>3</v>
       </c>
-      <c r="M2" s="7">
+      <c r="M2" s="4">
         <v>4</v>
       </c>
-      <c r="N2" s="7">
+      <c r="N2" s="4">
         <v>5</v>
       </c>
-      <c r="O2" s="7">
+      <c r="O2" s="4">
         <v>6</v>
       </c>
-      <c r="P2" s="7">
+      <c r="P2" s="4">
         <v>7</v>
       </c>
-      <c r="Q2" s="7">
+      <c r="Q2" s="4">
         <v>8</v>
       </c>
-      <c r="R2" s="7">
+      <c r="R2" s="4">
         <v>9</v>
       </c>
-      <c r="S2" s="7">
+      <c r="S2" s="4">
         <v>10</v>
       </c>
-      <c r="T2" s="7">
+      <c r="T2" s="4">
         <v>11</v>
       </c>
-      <c r="U2" s="7">
+      <c r="U2" s="4">
         <v>12</v>
       </c>
       <c r="W2" s="1" t="s">
@@ -966,77 +1001,77 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="9" t="s">
+      <c r="F3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="6">
         <v>9.5</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="4">
         <f>H3*10</f>
         <v>95</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="4">
         <v>0</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="4">
         <v>0</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="4">
         <f>D24+D20</f>
         <v>52</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="4">
         <f>D21+D23+D20+D29</f>
         <v>68</v>
       </c>
-      <c r="N3" s="7">
+      <c r="N3" s="4">
         <f>D26+D20+D22</f>
         <v>42</v>
       </c>
-      <c r="O3" s="7">
+      <c r="O3" s="4">
         <f>N3</f>
         <v>42</v>
       </c>
-      <c r="P3" s="7">
+      <c r="P3" s="4">
         <f>N3</f>
         <v>42</v>
       </c>
-      <c r="Q3" s="7">
+      <c r="Q3" s="4">
         <f>N3</f>
         <v>42</v>
       </c>
-      <c r="R3" s="7">
+      <c r="R3" s="4">
         <f>N3</f>
         <v>42</v>
       </c>
-      <c r="S3" s="7">
+      <c r="S3" s="4">
         <f>M3</f>
         <v>68</v>
       </c>
-      <c r="T3" s="7">
+      <c r="T3" s="4">
         <f>L3</f>
         <v>52</v>
       </c>
-      <c r="U3" s="7">
+      <c r="U3" s="4">
         <f>L3</f>
         <v>52</v>
       </c>
@@ -1062,77 +1097,77 @@
       </c>
     </row>
     <row r="4" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="6">
         <v>7.5</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="4">
         <f t="shared" ref="I4:I8" si="0">H4*10</f>
         <v>75</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="4">
         <f>D17+D18</f>
         <v>76</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="4">
         <f>J4</f>
         <v>76</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="4">
         <v>0</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="4">
         <f>D21+D23+D29</f>
         <v>54</v>
       </c>
-      <c r="N4" s="7">
+      <c r="N4" s="4">
         <f>D26+D22</f>
         <v>28</v>
       </c>
-      <c r="O4" s="7">
+      <c r="O4" s="4">
         <f>N4</f>
         <v>28</v>
       </c>
-      <c r="P4" s="7">
+      <c r="P4" s="4">
         <f>N4</f>
         <v>28</v>
       </c>
-      <c r="Q4" s="7">
+      <c r="Q4" s="4">
         <f>N4</f>
         <v>28</v>
       </c>
-      <c r="R4" s="7">
+      <c r="R4" s="4">
         <f>N4</f>
         <v>28</v>
       </c>
-      <c r="S4" s="7">
+      <c r="S4" s="4">
         <f>M4</f>
         <v>54</v>
       </c>
-      <c r="T4" s="7">
+      <c r="T4" s="4">
         <v>0</v>
       </c>
-      <c r="U4" s="7">
+      <c r="U4" s="4">
         <v>0</v>
       </c>
       <c r="W4" s="1">
@@ -1157,77 +1192,77 @@
       </c>
     </row>
     <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="6">
         <v>5</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="4">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="4">
         <f>D31+D17+D25+D18+D30</f>
         <v>124</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="4">
         <f>J5</f>
         <v>124</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="4">
         <f>D31+D24+D25+D30</f>
         <v>86</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="4">
         <v>0</v>
       </c>
-      <c r="N5" s="7">
+      <c r="N5" s="4">
         <f>D26+D22</f>
         <v>28</v>
       </c>
-      <c r="O5" s="7">
+      <c r="O5" s="4">
         <f>N5</f>
         <v>28</v>
       </c>
-      <c r="P5" s="7">
+      <c r="P5" s="4">
         <f>N5</f>
         <v>28</v>
       </c>
-      <c r="Q5" s="7">
+      <c r="Q5" s="4">
         <f>N5</f>
         <v>28</v>
       </c>
-      <c r="R5" s="7">
+      <c r="R5" s="4">
         <f>N5</f>
         <v>28</v>
       </c>
-      <c r="S5" s="7">
+      <c r="S5" s="4">
         <v>0</v>
       </c>
-      <c r="T5" s="7">
+      <c r="T5" s="4">
         <f>L5</f>
         <v>86</v>
       </c>
-      <c r="U5" s="7">
+      <c r="U5" s="4">
         <f>L5</f>
         <v>86</v>
       </c>
@@ -1253,74 +1288,74 @@
       </c>
     </row>
     <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
+      <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="6">
         <v>3</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="4">
         <f>D31+D17+D25+D18+D30</f>
         <v>124</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="4">
         <f>J6</f>
         <v>124</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="4">
         <f>D31+D24+D25+D30</f>
         <v>86</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="4">
         <f>D21+D23+D29</f>
         <v>54</v>
       </c>
-      <c r="N6" s="7">
+      <c r="N6" s="4">
         <v>0</v>
       </c>
-      <c r="O6" s="7">
+      <c r="O6" s="4">
         <v>0</v>
       </c>
-      <c r="P6" s="7">
+      <c r="P6" s="4">
         <v>0</v>
       </c>
-      <c r="Q6" s="7">
+      <c r="Q6" s="4">
         <v>0</v>
       </c>
-      <c r="R6" s="7">
+      <c r="R6" s="4">
         <v>0</v>
       </c>
-      <c r="S6" s="7">
+      <c r="S6" s="4">
         <f>M6</f>
         <v>54</v>
       </c>
-      <c r="T6" s="7">
+      <c r="T6" s="4">
         <f>L6</f>
         <v>86</v>
       </c>
-      <c r="U6" s="7">
+      <c r="U6" s="4">
         <f>L6</f>
         <v>86</v>
       </c>
@@ -1346,79 +1381,79 @@
       </c>
     </row>
     <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
+      <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="6">
         <v>3</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="4">
         <f>D31+D17+D25+D18+D30</f>
         <v>124</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="4">
         <f>J7</f>
         <v>124</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="4">
         <f>D31+D24+D25+D30</f>
         <v>86</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="4">
         <f>D21+D23+D29</f>
         <v>54</v>
       </c>
-      <c r="N7" s="7">
+      <c r="N7" s="4">
         <f>D26</f>
         <v>14</v>
       </c>
-      <c r="O7" s="7">
+      <c r="O7" s="4">
         <f>N7</f>
         <v>14</v>
       </c>
-      <c r="P7" s="7">
+      <c r="P7" s="4">
         <f>N7</f>
         <v>14</v>
       </c>
-      <c r="Q7" s="7">
+      <c r="Q7" s="4">
         <f>N7</f>
         <v>14</v>
       </c>
-      <c r="R7" s="7">
+      <c r="R7" s="4">
         <f>N7</f>
         <v>14</v>
       </c>
-      <c r="S7" s="7">
+      <c r="S7" s="4">
         <f>M7</f>
         <v>54</v>
       </c>
-      <c r="T7" s="7">
+      <c r="T7" s="4">
         <f>L7</f>
         <v>86</v>
       </c>
-      <c r="U7" s="7">
+      <c r="U7" s="4">
         <f>L7</f>
         <v>86</v>
       </c>
@@ -1444,79 +1479,79 @@
       </c>
     </row>
     <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
+      <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="6">
         <v>2</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="4">
         <f>J7</f>
         <v>124</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="4">
         <f t="shared" ref="K8:U8" si="6">K7</f>
         <v>124</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="4">
         <f t="shared" si="6"/>
         <v>86</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="4">
         <f t="shared" si="6"/>
         <v>54</v>
       </c>
-      <c r="N8" s="7">
+      <c r="N8" s="4">
         <f t="shared" si="6"/>
         <v>14</v>
       </c>
-      <c r="O8" s="7">
+      <c r="O8" s="4">
         <f t="shared" si="6"/>
         <v>14</v>
       </c>
-      <c r="P8" s="7">
+      <c r="P8" s="4">
         <f t="shared" si="6"/>
         <v>14</v>
       </c>
-      <c r="Q8" s="7">
+      <c r="Q8" s="4">
         <f t="shared" si="6"/>
         <v>14</v>
       </c>
-      <c r="R8" s="7">
+      <c r="R8" s="4">
         <f t="shared" si="6"/>
         <v>14</v>
       </c>
-      <c r="S8" s="7">
+      <c r="S8" s="4">
         <f t="shared" si="6"/>
         <v>54</v>
       </c>
-      <c r="T8" s="7">
+      <c r="T8" s="4">
         <f t="shared" si="6"/>
         <v>86</v>
       </c>
-      <c r="U8" s="7">
+      <c r="U8" s="4">
         <f t="shared" si="6"/>
         <v>86</v>
       </c>
@@ -1565,46 +1600,46 @@
     </row>
     <row r="10" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="I11" s="13" t="s">
+      <c r="I11" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="J11" s="13" t="s">
+      <c r="J11" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="K11" s="13" t="s">
+      <c r="K11" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="L11" s="13" t="s">
+      <c r="L11" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="M11" s="13" t="s">
+      <c r="M11" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="N11" s="13" t="s">
+      <c r="N11" s="10" t="s">
         <v>51</v>
       </c>
       <c r="W11" s="1" t="s">
@@ -1615,46 +1650,46 @@
       </c>
     </row>
     <row r="12" spans="1:27" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="14">
+      <c r="A12" s="11">
         <v>11</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="13">
         <v>-13</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="13">
         <v>-10</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="13">
         <v>-2</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="13">
         <v>5</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="13">
         <v>11</v>
       </c>
-      <c r="H12" s="16">
-        <v>14</v>
-      </c>
-      <c r="I12" s="16">
+      <c r="H12" s="13">
+        <v>14</v>
+      </c>
+      <c r="I12" s="13">
         <v>18</v>
       </c>
-      <c r="J12" s="16">
+      <c r="J12" s="13">
         <v>20</v>
       </c>
-      <c r="K12" s="16">
+      <c r="K12" s="13">
         <v>16</v>
       </c>
-      <c r="L12" s="16">
+      <c r="L12" s="13">
         <v>9</v>
       </c>
-      <c r="M12" s="16">
+      <c r="M12" s="13">
         <v>-1</v>
       </c>
-      <c r="N12" s="16">
+      <c r="N12" s="13">
         <v>-9</v>
       </c>
       <c r="W12" s="1">
@@ -1687,16 +1722,16 @@
       </c>
     </row>
     <row r="15" spans="1:27" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="10" t="s">
         <v>55</v>
       </c>
       <c r="W15" s="1">
@@ -1709,20 +1744,20 @@
       </c>
     </row>
     <row r="16" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="19">
+      <c r="A16" s="16">
         <v>1</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="6">
         <v>0.5</v>
       </c>
       <c r="D16" s="1">
-        <f>E16+2</f>
+        <f t="shared" ref="D16:D32" si="9">E16+2</f>
         <v>8</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="6">
         <v>6</v>
       </c>
       <c r="F16" s="1">
@@ -1739,20 +1774,20 @@
       </c>
     </row>
     <row r="17" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="19">
+      <c r="A17" s="16">
         <v>2</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="6">
         <v>4</v>
       </c>
       <c r="D17" s="1">
-        <f>E17+2</f>
+        <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="6">
         <v>48</v>
       </c>
       <c r="F17" s="1">
@@ -1769,20 +1804,20 @@
       </c>
     </row>
     <row r="18" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="19">
+      <c r="A18" s="16">
         <v>3</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="9">
+      <c r="B18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="6">
         <v>2</v>
       </c>
       <c r="D18" s="1">
-        <f>E18+2</f>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="6">
         <v>24</v>
       </c>
       <c r="F18" s="1">
@@ -1799,20 +1834,20 @@
       </c>
     </row>
     <row r="19" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="19">
+      <c r="A19" s="16">
         <v>4</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="6">
         <v>0.5</v>
       </c>
       <c r="D19" s="1">
-        <f>E19+2</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="6">
         <v>6</v>
       </c>
       <c r="F19" s="1">
@@ -1821,20 +1856,20 @@
       </c>
     </row>
     <row r="20" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="19">
+      <c r="A20" s="16">
         <v>5</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="6">
         <v>1</v>
       </c>
       <c r="D20" s="1">
-        <f>E20+2</f>
-        <v>14</v>
-      </c>
-      <c r="E20" s="9">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="E20" s="6">
         <v>12</v>
       </c>
       <c r="F20" s="1">
@@ -1844,79 +1879,79 @@
       <c r="I20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="J20" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="18"/>
     </row>
     <row r="21" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="19">
+      <c r="A21" s="16">
         <v>6</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="6">
         <v>0.5</v>
       </c>
       <c r="D21" s="1">
-        <f>E21+2</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="6">
         <v>6</v>
       </c>
       <c r="F21" s="1">
-        <f t="shared" ref="F21:F23" si="9">D21</f>
+        <f t="shared" ref="F21:F23" si="10">D21</f>
         <v>8</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="I21" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J21" s="4">
         <v>1</v>
       </c>
-      <c r="K21" s="7">
+      <c r="K21" s="4">
         <v>2</v>
       </c>
-      <c r="L21" s="7">
+      <c r="L21" s="4">
         <v>3</v>
       </c>
-      <c r="M21" s="7">
+      <c r="M21" s="4">
         <v>4</v>
       </c>
-      <c r="N21" s="7">
+      <c r="N21" s="4">
         <v>5</v>
       </c>
-      <c r="O21" s="7">
+      <c r="O21" s="4">
         <v>6</v>
       </c>
-      <c r="P21" s="7">
+      <c r="P21" s="4">
         <v>7</v>
       </c>
-      <c r="Q21" s="7">
+      <c r="Q21" s="4">
         <v>8</v>
       </c>
-      <c r="R21" s="7">
+      <c r="R21" s="4">
         <v>9</v>
       </c>
-      <c r="S21" s="7">
+      <c r="S21" s="4">
         <v>10</v>
       </c>
-      <c r="T21" s="7">
+      <c r="T21" s="4">
         <v>11</v>
       </c>
-      <c r="U21" s="7">
+      <c r="U21" s="4">
         <v>12</v>
       </c>
       <c r="W21" s="1" t="s">
@@ -1927,73 +1962,73 @@
       </c>
     </row>
     <row r="22" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="19">
+      <c r="A22" s="16">
         <v>7</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="6">
         <v>1</v>
       </c>
       <c r="D22" s="1">
-        <f>E22+2</f>
-        <v>14</v>
-      </c>
-      <c r="E22" s="9">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="E22" s="6">
         <v>12</v>
       </c>
       <c r="F22" s="1">
-        <f t="shared" si="9"/>
-        <v>14</v>
-      </c>
-      <c r="I22" s="7">
-        <f>H3*10</f>
+        <f t="shared" si="10"/>
+        <v>14</v>
+      </c>
+      <c r="I22" s="4">
+        <f t="shared" ref="I22:I27" si="11">H3*10</f>
         <v>95</v>
       </c>
-      <c r="J22" s="7">
+      <c r="J22" s="4">
         <v>0</v>
       </c>
-      <c r="K22" s="7">
+      <c r="K22" s="4">
         <v>0</v>
       </c>
-      <c r="L22" s="7">
+      <c r="L22" s="4">
         <f>F24+F20</f>
         <v>28</v>
       </c>
-      <c r="M22" s="7">
+      <c r="M22" s="4">
         <f>F21+F23+F20+F29</f>
         <v>68</v>
       </c>
-      <c r="N22" s="7">
+      <c r="N22" s="4">
         <f>F26+F20+F22</f>
         <v>42</v>
       </c>
-      <c r="O22" s="7">
+      <c r="O22" s="4">
         <f>N22</f>
         <v>42</v>
       </c>
-      <c r="P22" s="7">
+      <c r="P22" s="4">
         <f>N22</f>
         <v>42</v>
       </c>
-      <c r="Q22" s="7">
+      <c r="Q22" s="4">
         <f>N22</f>
         <v>42</v>
       </c>
-      <c r="R22" s="7">
+      <c r="R22" s="4">
         <f>N22</f>
         <v>42</v>
       </c>
-      <c r="S22" s="7">
+      <c r="S22" s="4">
         <f>M22</f>
         <v>68</v>
       </c>
-      <c r="T22" s="7">
+      <c r="T22" s="4">
         <f>L22</f>
         <v>28</v>
       </c>
-      <c r="U22" s="7">
+      <c r="U22" s="4">
         <f>L22</f>
         <v>28</v>
       </c>
@@ -2003,73 +2038,73 @@
       </c>
     </row>
     <row r="23" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="19">
+      <c r="A23" s="16">
         <v>8</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="6">
         <v>2</v>
       </c>
       <c r="D23" s="1">
-        <f>E23+2</f>
-        <v>26</v>
-      </c>
-      <c r="E23" s="9">
-        <v>24</v>
-      </c>
-      <c r="F23" s="1">
         <f t="shared" si="9"/>
         <v>26</v>
       </c>
-      <c r="I23" s="7">
-        <f>H4*10</f>
+      <c r="E23" s="6">
+        <v>24</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="10"/>
+        <v>26</v>
+      </c>
+      <c r="I23" s="4">
+        <f t="shared" si="11"/>
         <v>75</v>
       </c>
-      <c r="J23" s="7">
+      <c r="J23" s="4">
         <f>F17+F18</f>
         <v>44</v>
       </c>
-      <c r="K23" s="7">
+      <c r="K23" s="4">
         <f>J23</f>
         <v>44</v>
       </c>
-      <c r="L23" s="7">
+      <c r="L23" s="4">
         <v>0</v>
       </c>
-      <c r="M23" s="7">
+      <c r="M23" s="4">
         <f>F21+F23+F29</f>
         <v>54</v>
       </c>
-      <c r="N23" s="7">
+      <c r="N23" s="4">
         <f>F26+F22</f>
         <v>28</v>
       </c>
-      <c r="O23" s="7">
+      <c r="O23" s="4">
         <f>N23</f>
         <v>28</v>
       </c>
-      <c r="P23" s="7">
+      <c r="P23" s="4">
         <f>N23</f>
         <v>28</v>
       </c>
-      <c r="Q23" s="7">
+      <c r="Q23" s="4">
         <f>N23</f>
         <v>28</v>
       </c>
-      <c r="R23" s="7">
+      <c r="R23" s="4">
         <f>N23</f>
         <v>28</v>
       </c>
-      <c r="S23" s="7">
+      <c r="S23" s="4">
         <f>M23</f>
         <v>54</v>
       </c>
-      <c r="T23" s="7">
+      <c r="T23" s="4">
         <v>0</v>
       </c>
-      <c r="U23" s="7">
+      <c r="U23" s="4">
         <v>0</v>
       </c>
       <c r="W23" s="1">
@@ -2078,224 +2113,224 @@
       </c>
     </row>
     <row r="24" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="19">
+      <c r="A24" s="16">
         <v>9</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="6">
         <v>3</v>
       </c>
       <c r="D24" s="1">
-        <f>E24+2</f>
+        <f t="shared" si="9"/>
         <v>38</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="6">
         <v>36</v>
       </c>
       <c r="F24" s="1">
         <f>E24/3+2</f>
         <v>14</v>
       </c>
-      <c r="I24" s="7">
-        <f>H5*10</f>
+      <c r="I24" s="4">
+        <f t="shared" si="11"/>
         <v>50</v>
       </c>
-      <c r="J24" s="7">
+      <c r="J24" s="4">
         <f>F31+F17+F25+F18+F30</f>
         <v>68</v>
       </c>
-      <c r="K24" s="7">
+      <c r="K24" s="4">
         <f>J24</f>
         <v>68</v>
       </c>
-      <c r="L24" s="7">
+      <c r="L24" s="4">
         <f>F31+F24+F25+F30</f>
         <v>38</v>
       </c>
-      <c r="M24" s="7">
+      <c r="M24" s="4">
         <v>0</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N24" s="4">
         <f>N23</f>
         <v>28</v>
       </c>
-      <c r="O24" s="7">
+      <c r="O24" s="4">
         <f>N24</f>
         <v>28</v>
       </c>
-      <c r="P24" s="7">
+      <c r="P24" s="4">
         <f>N24</f>
         <v>28</v>
       </c>
-      <c r="Q24" s="7">
+      <c r="Q24" s="4">
         <f>N24</f>
         <v>28</v>
       </c>
-      <c r="R24" s="7">
+      <c r="R24" s="4">
         <f>N24</f>
         <v>28</v>
       </c>
-      <c r="S24" s="7">
+      <c r="S24" s="4">
         <v>0</v>
       </c>
-      <c r="T24" s="7">
+      <c r="T24" s="4">
         <f>L24</f>
         <v>38</v>
       </c>
-      <c r="U24" s="7">
+      <c r="U24" s="4">
         <f>L24</f>
         <v>38</v>
       </c>
       <c r="W24" s="1">
-        <f t="shared" ref="W24:W25" si="10">-(SUM(J24:U24)+12*I24)</f>
+        <f t="shared" ref="W24:W25" si="12">-(SUM(J24:U24)+12*I24)</f>
         <v>-990</v>
       </c>
     </row>
     <row r="25" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="19">
+      <c r="A25" s="16">
         <v>10</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="6">
         <v>0.5</v>
       </c>
       <c r="D25" s="1">
-        <f>E25+2</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="6">
         <v>6</v>
       </c>
       <c r="F25" s="1">
         <f>D25</f>
         <v>8</v>
       </c>
-      <c r="I25" s="7">
-        <f>H6*10</f>
+      <c r="I25" s="4">
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
-      <c r="J25" s="7">
+      <c r="J25" s="4">
         <f>J24</f>
         <v>68</v>
       </c>
-      <c r="K25" s="7">
+      <c r="K25" s="4">
         <f>J25</f>
         <v>68</v>
       </c>
-      <c r="L25" s="7">
+      <c r="L25" s="4">
         <f>L24</f>
         <v>38</v>
       </c>
-      <c r="M25" s="7">
+      <c r="M25" s="4">
         <f>M23</f>
         <v>54</v>
       </c>
-      <c r="N25" s="7">
+      <c r="N25" s="4">
         <v>0</v>
       </c>
-      <c r="O25" s="7">
+      <c r="O25" s="4">
         <v>0</v>
       </c>
-      <c r="P25" s="7">
+      <c r="P25" s="4">
         <v>0</v>
       </c>
-      <c r="Q25" s="7">
+      <c r="Q25" s="4">
         <v>0</v>
       </c>
-      <c r="R25" s="7">
+      <c r="R25" s="4">
         <v>0</v>
       </c>
-      <c r="S25" s="7">
+      <c r="S25" s="4">
         <f>M25</f>
         <v>54</v>
       </c>
-      <c r="T25" s="7">
+      <c r="T25" s="4">
         <f>L25</f>
         <v>38</v>
       </c>
-      <c r="U25" s="7">
+      <c r="U25" s="4">
         <f>L25</f>
         <v>38</v>
       </c>
       <c r="W25" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-718</v>
       </c>
     </row>
     <row r="26" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="19">
+      <c r="A26" s="16">
         <v>11</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="6">
         <v>1</v>
       </c>
       <c r="D26" s="1">
-        <f>E26+2</f>
-        <v>14</v>
-      </c>
-      <c r="E26" s="9">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="E26" s="6">
         <v>12</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" ref="F26:F29" si="11">D26</f>
-        <v>14</v>
-      </c>
-      <c r="I26" s="7">
-        <f>H7*10</f>
+        <f t="shared" ref="F26:F29" si="13">D26</f>
+        <v>14</v>
+      </c>
+      <c r="I26" s="4">
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
-      <c r="J26" s="7">
-        <f t="shared" ref="J26:J27" si="12">J25</f>
+      <c r="J26" s="4">
+        <f t="shared" ref="J26:J27" si="14">J25</f>
         <v>68</v>
       </c>
-      <c r="K26" s="7">
+      <c r="K26" s="4">
         <f>J26</f>
         <v>68</v>
       </c>
-      <c r="L26" s="7">
-        <f t="shared" ref="L26:L27" si="13">L25</f>
+      <c r="L26" s="4">
+        <f t="shared" ref="L26:L27" si="15">L25</f>
         <v>38</v>
       </c>
-      <c r="M26" s="7">
+      <c r="M26" s="4">
         <f>M23</f>
         <v>54</v>
       </c>
-      <c r="N26" s="7">
+      <c r="N26" s="4">
         <f>F26</f>
         <v>14</v>
       </c>
-      <c r="O26" s="7">
+      <c r="O26" s="4">
         <f>N26</f>
         <v>14</v>
       </c>
-      <c r="P26" s="7">
+      <c r="P26" s="4">
         <f>N26</f>
         <v>14</v>
       </c>
-      <c r="Q26" s="7">
+      <c r="Q26" s="4">
         <f>N26</f>
         <v>14</v>
       </c>
-      <c r="R26" s="7">
+      <c r="R26" s="4">
         <f>N26</f>
         <v>14</v>
       </c>
-      <c r="S26" s="7">
+      <c r="S26" s="4">
         <f>M26</f>
         <v>54</v>
       </c>
-      <c r="T26" s="7">
+      <c r="T26" s="4">
         <f>L26</f>
         <v>38</v>
       </c>
-      <c r="U26" s="7">
+      <c r="U26" s="4">
         <f>L26</f>
         <v>38</v>
       </c>
@@ -2305,76 +2340,76 @@
       </c>
     </row>
     <row r="27" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="19">
+      <c r="A27" s="16">
         <v>12</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="6">
         <v>0.5</v>
       </c>
       <c r="D27" s="1">
-        <f>E27+2</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="6">
         <v>6</v>
       </c>
       <c r="F27" s="1">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="I27" s="4">
         <f t="shared" si="11"/>
-        <v>8</v>
-      </c>
-      <c r="I27" s="7">
-        <f>H8*10</f>
         <v>20</v>
       </c>
-      <c r="J27" s="7">
-        <f t="shared" si="12"/>
+      <c r="J27" s="4">
+        <f t="shared" si="14"/>
         <v>68</v>
       </c>
-      <c r="K27" s="7">
-        <f t="shared" ref="K27" si="14">K26</f>
+      <c r="K27" s="4">
+        <f t="shared" ref="K27" si="16">K26</f>
         <v>68</v>
       </c>
-      <c r="L27" s="7">
-        <f t="shared" si="13"/>
+      <c r="L27" s="4">
+        <f t="shared" si="15"/>
         <v>38</v>
       </c>
-      <c r="M27" s="7">
+      <c r="M27" s="4">
         <f>M23</f>
         <v>54</v>
       </c>
-      <c r="N27" s="7">
-        <f t="shared" ref="N27" si="15">N26</f>
-        <v>14</v>
-      </c>
-      <c r="O27" s="7">
-        <f t="shared" ref="O27" si="16">O26</f>
-        <v>14</v>
-      </c>
-      <c r="P27" s="7">
-        <f t="shared" ref="P27" si="17">P26</f>
-        <v>14</v>
-      </c>
-      <c r="Q27" s="7">
-        <f t="shared" ref="Q27" si="18">Q26</f>
-        <v>14</v>
-      </c>
-      <c r="R27" s="7">
-        <f t="shared" ref="R27" si="19">R26</f>
-        <v>14</v>
-      </c>
-      <c r="S27" s="7">
-        <f t="shared" ref="S27" si="20">S26</f>
+      <c r="N27" s="4">
+        <f t="shared" ref="N27" si="17">N26</f>
+        <v>14</v>
+      </c>
+      <c r="O27" s="4">
+        <f t="shared" ref="O27" si="18">O26</f>
+        <v>14</v>
+      </c>
+      <c r="P27" s="4">
+        <f t="shared" ref="P27" si="19">P26</f>
+        <v>14</v>
+      </c>
+      <c r="Q27" s="4">
+        <f t="shared" ref="Q27" si="20">Q26</f>
+        <v>14</v>
+      </c>
+      <c r="R27" s="4">
+        <f t="shared" ref="R27" si="21">R26</f>
+        <v>14</v>
+      </c>
+      <c r="S27" s="4">
+        <f t="shared" ref="S27" si="22">S26</f>
         <v>54</v>
       </c>
-      <c r="T27" s="7">
-        <f t="shared" ref="T27" si="21">T26</f>
+      <c r="T27" s="4">
+        <f t="shared" ref="T27" si="23">T26</f>
         <v>38</v>
       </c>
-      <c r="U27" s="7">
-        <f t="shared" ref="U27" si="22">U26</f>
+      <c r="U27" s="4">
+        <f t="shared" ref="U27" si="24">U26</f>
         <v>38</v>
       </c>
       <c r="W27" s="1">
@@ -2383,24 +2418,24 @@
       </c>
     </row>
     <row r="28" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="19">
+      <c r="A28" s="16">
         <v>13</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="6">
         <v>0.5</v>
       </c>
       <c r="D28" s="1">
-        <f>E28+2</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="6">
         <v>6</v>
       </c>
       <c r="F28" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="W28" s="1">
@@ -2409,42 +2444,42 @@
       </c>
     </row>
     <row r="29" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="19">
-        <v>14</v>
-      </c>
-      <c r="B29" s="20" t="s">
+      <c r="A29" s="16">
+        <v>14</v>
+      </c>
+      <c r="B29" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="6">
         <v>1.5</v>
       </c>
       <c r="D29" s="1">
-        <f>E29+2</f>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="6">
         <v>18</v>
       </c>
       <c r="F29" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="19">
+    <row r="30" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="16">
         <v>15</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="6">
         <v>2</v>
       </c>
       <c r="D30" s="1">
-        <f>E30+2</f>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="6">
         <v>24</v>
       </c>
       <c r="F30" s="1">
@@ -2453,20 +2488,20 @@
       </c>
     </row>
     <row r="31" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="19">
+      <c r="A31" s="16">
         <v>16</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="6">
         <v>1</v>
       </c>
       <c r="D31" s="1">
-        <f>E31+2</f>
-        <v>14</v>
-      </c>
-      <c r="E31" s="9">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="E31" s="6">
         <v>12</v>
       </c>
       <c r="F31" s="1">
@@ -2475,20 +2510,20 @@
       </c>
     </row>
     <row r="32" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="19">
+      <c r="A32" s="16">
         <v>17</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="6">
         <v>0.5</v>
       </c>
       <c r="D32" s="1">
-        <f>E32+2</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="6">
         <v>6</v>
       </c>
       <c r="F32" s="1">
@@ -2513,13 +2548,345 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C3:AA9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AA10" sqref="AA10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="24" width="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="23">
+        <v>1</v>
+      </c>
+      <c r="F4" s="23">
+        <v>2</v>
+      </c>
+      <c r="G4" s="23">
+        <v>3</v>
+      </c>
+      <c r="H4" s="23">
+        <v>4</v>
+      </c>
+      <c r="I4" s="23">
+        <v>5</v>
+      </c>
+      <c r="J4" s="23">
+        <v>6</v>
+      </c>
+      <c r="K4" s="23">
+        <v>7</v>
+      </c>
+      <c r="L4" s="23">
+        <v>8</v>
+      </c>
+      <c r="M4" s="23">
+        <v>9</v>
+      </c>
+      <c r="N4" s="23">
+        <v>10</v>
+      </c>
+      <c r="O4" s="23">
+        <v>11</v>
+      </c>
+      <c r="P4" s="23">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="23">
+        <v>13</v>
+      </c>
+      <c r="R4" s="23">
+        <v>14</v>
+      </c>
+      <c r="S4" s="23">
+        <v>15</v>
+      </c>
+      <c r="T4" s="23">
+        <v>16</v>
+      </c>
+      <c r="U4" s="23">
+        <v>17</v>
+      </c>
+      <c r="V4" s="23">
+        <v>18</v>
+      </c>
+      <c r="W4" s="23">
+        <v>19</v>
+      </c>
+      <c r="X4" s="23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="27">
+        <v>11</v>
+      </c>
+      <c r="D5" s="24">
+        <v>1</v>
+      </c>
+      <c r="E5" s="25">
+        <v>70</v>
+      </c>
+      <c r="F5" s="25">
+        <v>99</v>
+      </c>
+      <c r="G5" s="25">
+        <v>17</v>
+      </c>
+      <c r="H5" s="25">
+        <v>39</v>
+      </c>
+      <c r="I5" s="25">
+        <v>69</v>
+      </c>
+      <c r="J5" s="25">
+        <v>63</v>
+      </c>
+      <c r="K5" s="25">
+        <v>22</v>
+      </c>
+      <c r="L5" s="25">
+        <v>94</v>
+      </c>
+      <c r="M5" s="25">
+        <v>73</v>
+      </c>
+      <c r="N5" s="25">
+        <v>47</v>
+      </c>
+      <c r="O5" s="25">
+        <v>31</v>
+      </c>
+      <c r="P5" s="25">
+        <v>62</v>
+      </c>
+      <c r="Q5" s="25">
+        <v>82</v>
+      </c>
+      <c r="R5" s="25">
+        <v>90</v>
+      </c>
+      <c r="S5" s="25">
+        <v>92</v>
+      </c>
+      <c r="T5" s="25">
+        <v>91</v>
+      </c>
+      <c r="U5" s="25">
+        <v>57</v>
+      </c>
+      <c r="V5" s="25">
+        <v>15</v>
+      </c>
+      <c r="W5" s="25">
+        <v>21</v>
+      </c>
+      <c r="X5" s="25">
+        <v>57</v>
+      </c>
+      <c r="Y5">
+        <f>SUM(E5:X5)</f>
+        <v>1191</v>
+      </c>
+      <c r="Z5">
+        <f>Y5/100</f>
+        <v>11.91</v>
+      </c>
+      <c r="AA5">
+        <f>ROUNDUP(Y5/100,0)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="26"/>
+      <c r="D6" s="24">
+        <v>2</v>
+      </c>
+      <c r="E6" s="25">
+        <v>74</v>
+      </c>
+      <c r="F6" s="25">
+        <v>91</v>
+      </c>
+      <c r="G6" s="25">
+        <v>47</v>
+      </c>
+      <c r="H6" s="25">
+        <v>51</v>
+      </c>
+      <c r="I6" s="25">
+        <v>31</v>
+      </c>
+      <c r="J6" s="25">
+        <v>21</v>
+      </c>
+      <c r="K6" s="25">
+        <v>37</v>
+      </c>
+      <c r="L6" s="25">
+        <v>40</v>
+      </c>
+      <c r="M6" s="25">
+        <v>54</v>
+      </c>
+      <c r="N6" s="25">
+        <v>30</v>
+      </c>
+      <c r="O6" s="25">
+        <v>98</v>
+      </c>
+      <c r="P6" s="25">
+        <v>25</v>
+      </c>
+      <c r="Q6" s="25">
+        <v>81</v>
+      </c>
+      <c r="R6" s="25">
+        <v>16</v>
+      </c>
+      <c r="S6" s="25">
+        <v>16</v>
+      </c>
+      <c r="T6" s="25">
+        <v>2</v>
+      </c>
+      <c r="U6" s="25">
+        <v>31</v>
+      </c>
+      <c r="V6" s="25">
+        <v>39</v>
+      </c>
+      <c r="W6" s="25">
+        <v>96</v>
+      </c>
+      <c r="X6" s="25">
+        <v>4</v>
+      </c>
+      <c r="Y6">
+        <f>SUM(E6:X6)</f>
+        <v>884</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" ref="Z6:Z7" si="0">Y6/100</f>
+        <v>8.84</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" ref="AA6:AA7" si="1">ROUNDUP(Y6/100,0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="28"/>
+      <c r="D7" s="24">
+        <v>3</v>
+      </c>
+      <c r="E7" s="25">
+        <v>38</v>
+      </c>
+      <c r="F7" s="25">
+        <v>80</v>
+      </c>
+      <c r="G7" s="25">
+        <v>18</v>
+      </c>
+      <c r="H7" s="25">
+        <v>21</v>
+      </c>
+      <c r="I7" s="25">
+        <v>70</v>
+      </c>
+      <c r="J7" s="25">
+        <v>62</v>
+      </c>
+      <c r="K7" s="25">
+        <v>12</v>
+      </c>
+      <c r="L7" s="25">
+        <v>79</v>
+      </c>
+      <c r="M7" s="25">
+        <v>77</v>
+      </c>
+      <c r="N7" s="25">
+        <v>85</v>
+      </c>
+      <c r="O7" s="25">
+        <v>36</v>
+      </c>
+      <c r="P7" s="25">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="25">
+        <v>76</v>
+      </c>
+      <c r="R7" s="25">
+        <v>83</v>
+      </c>
+      <c r="S7" s="25">
+        <v>7</v>
+      </c>
+      <c r="T7" s="25">
+        <v>59</v>
+      </c>
+      <c r="U7" s="25">
+        <v>57</v>
+      </c>
+      <c r="V7" s="25">
+        <v>44</v>
+      </c>
+      <c r="W7" s="25">
+        <v>99</v>
+      </c>
+      <c r="X7" s="25">
+        <v>11</v>
+      </c>
+      <c r="Y7">
+        <f>SUM(E7:X7)</f>
+        <v>1018</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="0"/>
+        <v>10.18</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="Y9">
+        <f>SUM(E5:X7)</f>
+        <v>3093</v>
+      </c>
+      <c r="Z9">
+        <f>Y9/100</f>
+        <v>30.93</v>
+      </c>
+      <c r="AA9">
+        <f>ROUNDUP(Z9,0)</f>
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C5:C7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
